--- a/02-Avancado1-Funcoes/08-PlanilhasExtras/Aula-32-ExcelAvancado1-Hostel-FuncoesProcuraLogica.xlsx
+++ b/02-Avancado1-Funcoes/08-PlanilhasExtras/Aula-32-ExcelAvancado1-Hostel-FuncoesProcuraLogica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\09-PlanilhasExtras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Documents\msexcel\02-Avancado1-Funcoes\08-PlanilhasExtras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4E3253-A9D3-44B3-8610-E2DA60E3869E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AEB465-CF2C-4ED8-ACB8-3F13CE0C1A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha Original" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Configurações" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -412,7 +411,25 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Cálculo Número Caractere: </t>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LÓGICA CÁLCULO NÚMERO DE CARACTERES:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -432,7 +449,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Hóspedes &gt;= 25 caracteres = Reduzir o Nome </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hóspedes &gt;= 25 caracteres</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Reduzir o Nome </t>
     </r>
     <r>
       <rPr>
@@ -453,7 +490,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Nome OK
-Cálculo Valor da Diária: </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LÓGICA DO CÁLCULO DO VALOR DA DIÁRIA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -473,7 +531,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Acomodação = "" = Sem Diária </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acomodação = ""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Sem Diária" </t>
     </r>
     <r>
       <rPr>
@@ -493,7 +571,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Procurar na Tabela de Diárias</t>
+      <t xml:space="preserve"> PROCV na Tabela de Diárias</t>
     </r>
   </si>
 </sst>
@@ -505,7 +583,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +672,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1699,25 +1792,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" style="12" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="12" customWidth="1"/>
     <col min="12" max="19" width="9" customWidth="1"/>
     <col min="20" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="13.8">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="14.25">
       <c r="A1" s="20"/>
     </row>
     <row r="2" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1">
@@ -1782,7 +1875,7 @@
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
     </row>
-    <row r="7" spans="1:11" s="21" customFormat="1" ht="16.8">
+    <row r="7" spans="1:11" s="21" customFormat="1" ht="16.5">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -1807,7 +1900,7 @@
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11"/>
-    <row r="10" spans="1:11" ht="28.8">
+    <row r="10" spans="1:11" ht="30">
       <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
@@ -2092,26 +2185,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
     <col min="13" max="20" width="9" customWidth="1"/>
     <col min="21" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="21" customFormat="1" ht="13.8">
+    <row r="1" spans="1:12" s="21" customFormat="1" ht="14.25">
       <c r="A1" s="20"/>
     </row>
     <row r="2" spans="1:12" s="21" customFormat="1" ht="14.25" customHeight="1">
@@ -2181,7 +2274,7 @@
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" s="21" customFormat="1" ht="16.8">
+    <row r="7" spans="1:12" s="21" customFormat="1" ht="16.5">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -2239,7 +2332,7 @@
       <c r="H12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="28.8">
+    <row r="13" spans="1:12" ht="30">
       <c r="B13" s="18" t="s">
         <v>41</v>
       </c>
@@ -2418,16 +2511,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="11" width="9" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" ht="13.8">
+    <row r="1" spans="1:3" s="21" customFormat="1" ht="14.25">
       <c r="A1" s="20"/>
     </row>
     <row r="2" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
@@ -2450,7 +2543,7 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" s="21" customFormat="1" ht="16.8">
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="16.5">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
     </row>
@@ -2559,16 +2652,16 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="11" width="9" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" ht="13.8">
+    <row r="1" spans="1:3" s="21" customFormat="1" ht="14.25">
       <c r="A1" s="20"/>
     </row>
     <row r="2" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
@@ -2591,7 +2684,7 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" s="21" customFormat="1" ht="16.8">
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="16.5">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
     </row>
